--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3142.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3142.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9658259575657698</v>
+        <v>1.059224843978882</v>
       </c>
       <c r="B1">
-        <v>1.904583681075632</v>
+        <v>1.254661560058594</v>
       </c>
       <c r="C1">
-        <v>3.805487215250108</v>
+        <v>1.664891481399536</v>
       </c>
       <c r="D1">
-        <v>4.376855119904629</v>
+        <v>3.978271484375</v>
       </c>
       <c r="E1">
-        <v>1.795002956905899</v>
+        <v>3.413884162902832</v>
       </c>
     </row>
   </sheetData>
